--- a/data/testing.xlsx
+++ b/data/testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="132" windowWidth="23280" windowHeight="12732"/>
+    <workbookView xWindow="240" yWindow="132" windowWidth="23256" windowHeight="12732"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,39 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>browser</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>V91</t>
-  </si>
-  <si>
-    <t>Edge</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>V11</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Firefox</t>
-  </si>
-  <si>
-    <t>V59</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>kz1121</t>
+  </si>
+  <si>
+    <t>test1234</t>
+  </si>
+  <si>
+    <t>zk5242</t>
+  </si>
+  <si>
+    <t>it2411</t>
   </si>
 </sst>
 </file>
@@ -406,32 +391,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9.109375" style="3" collapsed="1"/>
-    <col min="3" max="3" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" style="1"/>
+    <col min="3" max="5" width="9.109375" style="1"/>
     <col min="6" max="16384" width="9.109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -439,28 +420,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
